--- a/MS/Excel/XLFuo.xlsx
+++ b/MS/Excel/XLFuo.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jejyjose1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27ADC368-2D90-4F91-8D71-AECD875D613B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC61E04-0030-4518-9868-CF17D2CFAC84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26535" windowHeight="8430" xr2:uid="{C46A8FD0-588E-48B8-8FE8-BBE1BE071CF8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="7140" activeTab="1" xr2:uid="{C46A8FD0-588E-48B8-8FE8-BBE1BE071CF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formulas" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="bmfilter_for_unique_values" localSheetId="1">Sheet1!$E$18</definedName>
+    <definedName name="bmformat" localSheetId="1">Sheet1!$E$21</definedName>
+    <definedName name="bmlearn_more" localSheetId="1">Sheet1!$E$17</definedName>
+    <definedName name="bmremove_duplicate_values" localSheetId="1">Sheet1!$E$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>D:\FME_Working_AFC\Archive\Outputs\March2016_v1\APT3_3Zone.shp,  6917856</t>
   </si>
@@ -52,13 +64,144 @@
   </si>
   <si>
     <t>Extract file extension from filename</t>
+  </si>
+  <si>
+    <t>Remove duplicates</t>
+  </si>
+  <si>
+    <t>In Excel, there are several ways to filter for unique values—or remove duplicate values:</t>
+  </si>
+  <si>
+    <r>
+      <t>To filter for unique values, click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data &gt; Sort &amp; Filter &gt; Advanced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To remove duplicate values, click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data &gt; Data Tools &gt; Remove Duplicates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>To highlight unique or duplicate values, use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Conditional Formatting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> command in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> group on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2F2F2F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> tab.</t>
+    </r>
+  </si>
+  <si>
+    <t>Learn about filtering for unique values or removing duplicate values</t>
+  </si>
+  <si>
+    <t>Filter for unique values</t>
+  </si>
+  <si>
+    <t>Remove duplicate values</t>
+  </si>
+  <si>
+    <t>Problems removing duplicates from outlined or subtotaled data</t>
+  </si>
+  <si>
+    <t>Conditionally format unique or duplicate values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +215,42 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="17.600000000000001"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2F2F2F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,15 +268,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCECECE"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -111,6 +317,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="The Sort &amp;amp; Filter group on the Data tab">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFAB548C-A38E-4C04-AD71-1190B238E4B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2438400" y="1104901"/>
+          <a:ext cx="1933575" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Remove Duplicates">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756A99A1-0B11-49EB-990A-618420ABC9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2524125" y="2057401"/>
+          <a:ext cx="3095625" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F22AF6A-B710-4154-B7A1-A4994383CE80}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -493,4 +826,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EE40BE-0F0D-43CD-B686-4048CAA6010C}">
+  <dimension ref="B2:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" display="javascript:" xr:uid="{6B875D25-2910-447C-AD54-D3A6414B9C4E}"/>
+    <hyperlink ref="E18" r:id="rId2" display="javascript:" xr:uid="{0AC4B01B-1DFC-4339-BF1E-EF5F1B0B4283}"/>
+    <hyperlink ref="E19" r:id="rId3" display="javascript:" xr:uid="{A724203B-AD4F-40B3-9270-FF65D127C41F}"/>
+    <hyperlink ref="E20" r:id="rId4" display="javascript:" xr:uid="{67BA447F-A12B-4B5E-B8D6-F94FBF438D9F}"/>
+    <hyperlink ref="E21" r:id="rId5" display="javascript:" xr:uid="{523AF530-7921-442B-8B8A-B123C966E403}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
 </file>
--- a/MS/Excel/XLFuo.xlsx
+++ b/MS/Excel/XLFuo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jejyjose1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC61E04-0030-4518-9868-CF17D2CFAC84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDBAA4B-E73A-47D5-BA98-7A0C544D7F3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23685" windowHeight="7140" activeTab="1" xr2:uid="{C46A8FD0-588E-48B8-8FE8-BBE1BE071CF8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{C46A8FD0-588E-48B8-8FE8-BBE1BE071CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>D:\FME_Working_AFC\Archive\Outputs\March2016_v1\APT3_3Zone.shp,  6917856</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Conditionally format unique or duplicate values</t>
+  </si>
+  <si>
+    <t>Replace first "space" with comma</t>
   </si>
 </sst>
 </file>
@@ -743,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F22AF6A-B710-4154-B7A1-A4994383CE80}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,6 +825,18 @@
         <v>fmw</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>SUBSTITUTE(B11," ",",",1)</f>
+        <v>D:\FME_Working_AFC\Archive\Outputs\March2016_v1\APT3_3Zone.shp, 6917856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -832,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EE40BE-0F0D-43CD-B686-4048CAA6010C}">
   <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/MS/Excel/XLFuo.xlsx
+++ b/MS/Excel/XLFuo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jejyjose1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDBAA4B-E73A-47D5-BA98-7A0C544D7F3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E4FC02-9898-463C-9C04-F953EE8B3683}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{C46A8FD0-588E-48B8-8FE8-BBE1BE071CF8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C46A8FD0-588E-48B8-8FE8-BBE1BE071CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>D:\FME_Working_AFC\Archive\Outputs\March2016_v1\APT3_3Zone.shp,  6917856</t>
   </si>
@@ -198,6 +199,15 @@
   </si>
   <si>
     <t>Replace first "space" with comma</t>
+  </si>
+  <si>
+    <t>How to increment numbers when value changes in another</t>
+  </si>
+  <si>
+    <t>******=COUNTIF(B$2:B2,B2)********</t>
+  </si>
+  <si>
+    <t>******=IF(B2=B3,C2+1,1)********</t>
   </si>
 </sst>
 </file>
@@ -746,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F22AF6A-B710-4154-B7A1-A4994383CE80}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +845,19 @@
       <c r="C11" s="1" t="str">
         <f>SUBSTITUTE(B11," ",",",1)</f>
         <v>D:\FME_Working_AFC\Archive\Outputs\March2016_v1\APT3_3Zone.shp, 6917856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
